--- a/TP3/TP3-jfreechart-test-stats.xlsx
+++ b/TP3/TP3-jfreechart-test-stats.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiffa\Desktop\IFT3913\TP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D253F20-F768-4E1E-9CD5-4188D52D0DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3A3AF7-7404-4AFD-9DF7-79275BB0384A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jfreechart-test-stats" sheetId="1" r:id="rId1"/>
     <sheet name="Tâche 1" sheetId="2" r:id="rId2"/>
     <sheet name="Tâche 2" sheetId="3" r:id="rId3"/>
     <sheet name="Tâche 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Validité" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'jfreechart-test-stats'!$D$1</definedName>
@@ -27,20 +28,16 @@
     <definedName name="_xlchart.v1.13" hidden="1">'Tâche 3'!$C$6:$C$215</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">'Tâche 3'!$E$5</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">'Tâche 3'!$E$5</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Tâche 3'!$B$6:$B$140</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Tâche 3'!$C$6:$C$215</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Tâche 3'!$E$5</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Tâche 3'!$B$10:$B$144</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Tâche 3'!$C$10:$C$219</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Tâche 3'!$E$9</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">'Tâche 3'!$B$6:$B$140</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'jfreechart-test-stats'!$B$1</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">'Tâche 3'!$C$6:$C$215</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">'Tâche 3'!$E$5</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">'Tâche 3'!$B$6:$B$140</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">'Tâche 3'!$C$6:$C$215</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Tâche 3'!$B$6:$B$140</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Tâche 3'!$C$6:$C$215</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Tâche 3'!$B$6:$B$140</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Tâche 3'!$C$6:$C$215</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Tâche 3'!$E$5</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Tâche 3'!$E$5</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'jfreechart-test-stats'!$B$2:$B$352</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'jfreechart-test-stats'!$C$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'jfreechart-test-stats'!$C$2:$C$352</definedName>
@@ -89,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="372">
   <si>
     <t>class</t>
   </si>
@@ -1199,6 +1196,12 @@
   </si>
   <si>
     <t>Moyenne</t>
+  </si>
+  <si>
+    <t>WMC &gt;= 9</t>
+  </si>
+  <si>
+    <t>WMC &lt; 9</t>
   </si>
 </sst>
 </file>
@@ -10709,16 +10712,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>403225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -10754,7 +10757,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5203825" y="412750"/>
+              <a:off x="6613525" y="171450"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -11087,7 +11090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D352"/>
   <sheetViews>
-    <sheetView topLeftCell="A337" workbookViewId="0"/>
+    <sheetView topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -16029,7 +16034,7 @@
   <dimension ref="A2:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16057,7 +16062,7 @@
         <v>83</v>
       </c>
       <c r="C3">
-        <f>MEDIAN('jfreechart-test-stats'!C:C)</f>
+        <f>MEDIAN('jfreechart-test-stats'!C2:C352)</f>
         <v>9</v>
       </c>
       <c r="D3">
@@ -16517,1511 +16522,3175 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3E203B-F1A4-44AB-B804-70EC1C8C5158}">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
     <col min="2" max="2" width="21.08984375" customWidth="1"/>
     <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(B10:B144)</f>
+        <v>15.496296296296297</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(_xlfn.ANCHORARRAY(C10))</f>
+        <v>9.1190476190476186</v>
+      </c>
+      <c r="E2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2:F11">_xlfn._xlws.FILTER(B10:B144,B10:B144&gt;B7)</f>
+        <v>34</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2:G6">_xlfn._xlws.FILTER(C10:C219,C10:C219&gt;C7)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3">
+        <f>MEDIAN(B10:B144)</f>
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <f>MEDIAN(C10:C219)</f>
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4">
+        <f>_xlfn.QUARTILE.INC(B10:B144,1)</f>
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <f>_xlfn.QUARTILE.INC(C10:C219,1)</f>
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B5">
+        <f>_xlfn.QUARTILE.INC(B10:B144,3)</f>
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <f>_xlfn.QUARTILE.INC(C10:C219,3)</f>
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>37</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6">
+        <f>MIN(B10:B144)</f>
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <f>MIN(C10:C219)</f>
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7">
+        <f>B5+1.5*(B5-B4)</f>
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <f>C5+1.5*(C5-C4)</f>
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9" t="str" cm="1">
+        <f t="array" ref="B9:B144">_xlfn._xlws.FILTER('jfreechart-test-stats'!C:C,'jfreechart-test-stats'!D:D&gt;20,"")</f>
+        <v xml:space="preserve"> WMC</v>
+      </c>
+      <c r="F9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" cm="1">
+        <f t="array" ref="C10:C219">_xlfn._xlws.FILTER('jfreechart-test-stats'!C:C,('jfreechart-test-stats'!D:D&lt;20)*('jfreechart-test-stats'!D:D&gt;0))</f>
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>42</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>37</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>22</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>22</v>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>18</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>23</v>
+      </c>
+      <c r="C77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>13</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>26</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>16</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>18</v>
+      </c>
+      <c r="C89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>24</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>13</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>22</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>19</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>34</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>57</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>17</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>14</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>28</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>15</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>11</v>
+      </c>
+      <c r="C104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>16</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>15</v>
+      </c>
+      <c r="C107">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>19</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>23</v>
+      </c>
+      <c r="C110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>18</v>
+      </c>
+      <c r="C111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>19</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>18</v>
+      </c>
+      <c r="C113">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>20</v>
+      </c>
+      <c r="C114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>20</v>
+      </c>
+      <c r="C118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>17</v>
+      </c>
+      <c r="C119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>19</v>
+      </c>
+      <c r="C122">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>19</v>
+      </c>
+      <c r="C123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>38</v>
+      </c>
+      <c r="C124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>12</v>
+      </c>
+      <c r="C125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>35</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>17</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>12</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>23</v>
+      </c>
+      <c r="C130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>12</v>
+      </c>
+      <c r="C131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>17</v>
+      </c>
+      <c r="C132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>14</v>
+      </c>
+      <c r="C133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>14</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>16</v>
+      </c>
+      <c r="C136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>11</v>
+      </c>
+      <c r="C137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>14</v>
+      </c>
+      <c r="C138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>15</v>
+      </c>
+      <c r="C139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>10</v>
+      </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>14</v>
+      </c>
+      <c r="C141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>19</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>37</v>
+      </c>
+      <c r="C143">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C153">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C154">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C157">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C158">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C159">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C161">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C165">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C170">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C171">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C173">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C177">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C178">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C179">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C181">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C184">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C185">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C186">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C189">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C192">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C194">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C195">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C197">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C198">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C200">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C201">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C202">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C203">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C204">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C205">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C206">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C209">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C210">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C211">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C212">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C214">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C216">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C217">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C218">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C219">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17C2C5C-7F73-4972-B964-A9F5DF3AF389}">
+  <dimension ref="A1:C227"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3">
-        <f>MEDIAN(B6:B140)</f>
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <f>MEDIAN(C6:C215)</f>
-        <v>8</v>
+      <c r="B2">
+        <f>AVERAGE(B5:B227)</f>
+        <v>150.19282511210761</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(C5:C132)</f>
+        <v>54.0546875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4:B227">_xlfn._xlws.FILTER('jfreechart-test-stats'!B:B,'jfreechart-test-stats'!C:C&gt;=9)</f>
+        <v>TLOC</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B5" t="str" cm="1">
-        <f t="array" ref="B5:B140">_xlfn._xlws.FILTER('jfreechart-test-stats'!C:C,'jfreechart-test-stats'!D:D&gt;20,"")</f>
-        <v xml:space="preserve"> WMC</v>
+      <c r="B5">
+        <v>92</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" ref="C5:C132">_xlfn._xlws.FILTER('jfreechart-test-stats'!B:B,('jfreechart-test-stats'!C:C&lt;9)*('jfreechart-test-stats'!C:C&gt;0))</f>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" cm="1">
-        <f t="array" ref="C6:C215">_xlfn._xlws.FILTER('jfreechart-test-stats'!C:C,('jfreechart-test-stats'!D:D&lt;20)*('jfreechart-test-stats'!D:D&gt;0))</f>
-        <v>8</v>
+        <v>103</v>
+      </c>
+      <c r="C6">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>8</v>
+        <v>840</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14">
-        <v>8</v>
+        <v>220</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>11</v>
+        <v>522</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
-        <v>8</v>
+        <v>905</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C61">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="C63">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
-        <v>10</v>
+        <v>467</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C66">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="C69">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="C70">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C71">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="C72">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73">
-        <v>23</v>
+        <v>994</v>
       </c>
       <c r="C73">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74">
-        <v>13</v>
+        <v>552</v>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C75">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78">
-        <v>11</v>
+        <v>398</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C80">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="C82">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="C83">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="C84">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C85">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="C87">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C92">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="C93">
-        <v>7</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="C94">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="C95">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C96">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C97">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C98">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="C99">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="C100">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="C101">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C102">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="C103">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C104">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105">
+        <v>41</v>
+      </c>
+      <c r="C105">
         <v>19</v>
-      </c>
-      <c r="C105">
-        <v>8</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="C106">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="C107">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="C110">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C111">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B113">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C113">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B114">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C114">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B115">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="C115">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B116">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="C116">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B117">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B118">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B119">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B120">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="C120">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B121">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C121">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B122">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C122">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B123">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C123">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B124">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="C124">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B125">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B126">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C126">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B127">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="C127">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B128">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B129">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C129">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B130">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="C130">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B131">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="C131">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B132">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C132">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B133">
-        <v>11</v>
-      </c>
-      <c r="C133">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B134">
-        <v>14</v>
-      </c>
-      <c r="C134">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B135">
-        <v>15</v>
-      </c>
-      <c r="C135">
-        <v>10</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B136">
-        <v>10</v>
-      </c>
-      <c r="C136">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B137">
-        <v>14</v>
-      </c>
-      <c r="C137">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B138">
-        <v>19</v>
-      </c>
-      <c r="C138">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B139">
-        <v>37</v>
-      </c>
-      <c r="C139">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B140">
-        <v>13</v>
-      </c>
-      <c r="C140">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C141">
-        <v>10</v>
+      <c r="B141">
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C142">
-        <v>11</v>
+      <c r="B142">
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C143">
-        <v>11</v>
+      <c r="B143">
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C144">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C145">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C146">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C147">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C148">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C149">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C150">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C151">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C152">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C153">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C154">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C155">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C156">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C157">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C158">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C159">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C160">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C161">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C162">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C163">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C164">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C165">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C166">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C167">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C168">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C169">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C170">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C171">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C172">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C173">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C174">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C175">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C176">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C177">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C178">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C179">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C180">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C181">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C182">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C183">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C184">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C185">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C186">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C187">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C188">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C190">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C191">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C192">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C193">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C194">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C195">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C196">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C197">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C198">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C199">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C200">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C201">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C202">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C203">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C204">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C205">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C206">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C207">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C208">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C209">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C210">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C211">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C212">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C213">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C214">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C215">
-        <v>8</v>
+      <c r="B144">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B204">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B206">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B207">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B208">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B209">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B210">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B211">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B212">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B213">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B214">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B215">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B216">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B217">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B218">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B219">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B220">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B221">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B222">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B223">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B224">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B225">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B226">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B227">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>